--- a/report_ca_nhan/NV-20 CTV Ngoài 6-2024.xlsx
+++ b/report_ca_nhan/NV-20 CTV Ngoài 6-2024.xlsx
@@ -8,12 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +524,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +612,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +696,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,6 +784,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -844,6 +868,12 @@
       <c r="T5" t="n">
         <v/>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -926,6 +956,12 @@
           <t>Trần Khánh Hiệp</t>
         </is>
       </c>
+      <c r="U6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1004,6 +1040,12 @@
       <c r="T7" t="n">
         <v/>
       </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1082,6 +1124,12 @@
       <c r="T8" t="n">
         <v/>
       </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1160,6 +1208,12 @@
       <c r="T9" t="n">
         <v/>
       </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1238,6 +1292,12 @@
       <c r="T10" t="n">
         <v/>
       </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,6 +1376,12 @@
       <c r="T11" t="n">
         <v/>
       </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1394,6 +1460,12 @@
       <c r="T12" t="n">
         <v/>
       </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1472,6 +1544,12 @@
       <c r="T13" t="n">
         <v/>
       </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1550,6 +1628,12 @@
       <c r="T14" t="n">
         <v/>
       </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1628,6 +1712,12 @@
       <c r="T15" t="n">
         <v/>
       </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1706,6 +1796,12 @@
       <c r="T16" t="n">
         <v/>
       </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1784,6 +1880,12 @@
       <c r="T17" t="n">
         <v/>
       </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1864,6 +1966,12 @@
       <c r="T18" t="n">
         <v/>
       </c>
+      <c r="U18" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1942,6 +2050,12 @@
       <c r="T19" t="n">
         <v/>
       </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2020,6 +2134,12 @@
       <c r="T20" t="n">
         <v/>
       </c>
+      <c r="U20" t="n">
+        <v/>
+      </c>
+      <c r="V20" t="n">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2097,6 +2217,60 @@
       </c>
       <c r="T21" t="n">
         <v/>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>87500000</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>87500000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>83000000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>83000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>300000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,6 +2392,752 @@
         <is>
           <t>Phụ phẫu 2</t>
         </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>349</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06-07-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>huỳnh thị nhi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>378</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06-10-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Phan Ngọc Huyền</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hút mỡ bụng</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>381</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Đặng thị thuỳ dương</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>385</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Đặng thị ngọc diễm</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>402</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-14-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Lê Thị Huyền Trang</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Thu quầng ti</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>410</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06-16-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Bảo Anh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hút mỡ bắp tay</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>438</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06-18-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mộng Như Ý</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>448</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>06-20-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nguyễn Xuân Hồng</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>74300000</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>74300000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>74300000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>74300000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>500000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2231,7 +3151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,12 +3167,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã dịch vụ</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -2262,97 +3182,32 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Lượng thu</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+          <t>Ngày thu</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-01-2024</t>
+          <t>HD-LUXURY-351</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2360,1156 +3215,36 @@
           <t>LONG XUYÊN</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Chị diễm</t>
-        </is>
+      <c r="E2" t="n">
+        <v>2000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v>2300000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v/>
-      </c>
-      <c r="S2" t="n">
-        <v/>
-      </c>
-      <c r="T2" t="n">
-        <v/>
+          <t>06-03-2024</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>349</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>06-07-2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>huỳnh thị nhi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Lê Hoàng Thanh</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>378</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>06-10-2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Phan Ngọc Huyền</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Hút mỡ bụng</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>381</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>06-11-2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Đặng thị thuỳ dương</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Điêu khắc mày</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v/>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>385</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>06-12-2024</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Đặng thị ngọc diễm</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v/>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>402</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>06-14-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lê Thị Huyền Trang</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Thu quầng ti</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>410</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>06-16-2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Hút mỡ bắp tay</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>438</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>06-18-2024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mộng Như Ý</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Điêu khắc mày</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>448</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>06-20-2024</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Nguyễn Xuân Hồng</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Điêu khắc mày</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>2000000</v>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>64</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-351</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>06-03-2024</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
